--- a/xls/othervariantws.xlsx
+++ b/xls/othervariantws.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PYTHON\dlv_chains\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B56F3997-A393-420F-A792-E4A0BB9032EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D11DC82-5A8A-4DB6-AB62-69BADCC70864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>id_brand</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>SS</t>
+  </si>
+  <si>
+    <t>NEUTRAL</t>
+  </si>
+  <si>
+    <t>WINCHAIN</t>
+  </si>
+  <si>
+    <t>PROCHAIN</t>
+  </si>
+  <si>
+    <t>PROCHAIN ULTIMATE</t>
   </si>
 </sst>
 </file>
@@ -71,6 +83,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -430,12 +444,13 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -456,9 +471,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
+    <row r="2" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -474,8 +489,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -491,8 +506,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -508,8 +523,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -525,8 +540,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2</v>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -542,8 +557,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2</v>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -559,8 +574,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2</v>
+      <c r="A8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -576,8 +591,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2</v>
+      <c r="A9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -593,8 +608,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2</v>
+      <c r="A10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -610,8 +625,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>3</v>
+      <c r="A11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -627,8 +642,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>3</v>
+      <c r="A12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -644,8 +659,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>3</v>
+      <c r="A13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -661,8 +676,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>3</v>
+      <c r="A14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -678,8 +693,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>3</v>
+      <c r="A15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -695,8 +710,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>4</v>
+      <c r="A16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -712,8 +727,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>4</v>
+      <c r="A17" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -729,8 +744,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>4</v>
+      <c r="A18" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -746,8 +761,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>4</v>
+      <c r="A19" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
